--- a/Iterative_Regeneration_Results.xlsx
+++ b/Iterative_Regeneration_Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,80 +463,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>As a user, I want backend changes for managing enum lists.</t>
+          <t>As a camp administrator, I want to be able to remove campers if they don't attend the camp anymore, so that I can keep the records organized.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>As a As a user, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+          <t>As a nan, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to support data migration integrity testing.</t>
+          <t xml:space="preserve">As a Researcher, I want to get a Data Package into SPSS in seconds, so that I can start using the data for doing analysis and visualizations. </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>As a nan, I want to data migration integrity testing so that to support. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+          <t>As a nan, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>As a user, I want frontend changes for managing enum lists.</t>
+          <t>As a research head, I want to access to the persistent identifiers of datasets provided in the DMP, so that I can check that the DMP has been implemented.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>As a As a user, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+          <t>As a nan, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">As a Researcher, I want to get a Data Package into SPSS in seconds, so that I can start using the data for doing analysis and visualizations. </t>
+          <t>As an Application Administrator, I want to be able to reset a User's password for them.</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -547,84 +547,84 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>As an Application Administrator, I want to be able to reset a User's password for them.</t>
+          <t>to support data migration integrity testing.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>As a nan, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+          <t>As a nan, I want to nan so that to support. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>As a camp administrator, I want to be able to remove campers if they don't attend the camp anymore, so that I can keep the records organized.</t>
+          <t>As a user, I want to be able to access the site and do all the other stuffs on all of my electronic devices.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>As a nan, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+          <t>As a As a user, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>As a research head, I want to access to the persistent identifiers of datasets provided in the DMP, so that I can check that the DMP has been implemented.</t>
+          <t>As a user, I want backend changes for managing enum lists.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>As a nan, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+          <t>As a As a user, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>As a user, I want to be able to access the site and do all the other stuffs on all of my electronic devices.</t>
+          <t>As a user, I want frontend changes for managing enum lists.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>26</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>As a As a user, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+          <t>As a As a user, I want to frontend changes so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
         </is>
       </c>
     </row>
@@ -638,10 +638,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>27</v>
@@ -667,6 +667,2946 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>As a camp administrator, I want to warn a camp worker so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>As a repoadmin, I want to have Symplectic Elements bidirectionally communicate and integrate with DDR, which  provide a Fedora Connector and Emory is using a hidden Fedora instance that Hydra collects objects for.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>As a As a repoadmin, I want to bidirectionally communicate and integrate so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>As a collection curator, I want to have items be made available under the permissions they were configured once the embargo date has been reached.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>27</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>As a As a collection curator, I want to nan so that once the embargo date has been reached. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>As a collection curator, I want to move items from one collection to another.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>27</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>As a As a collection curator, I want to move items so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>As a repository manager, I want to elect to either replicate remotely or not and possibly to replicate beyond the primary remote site.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>As a As a repository manager, I want to possibly to replicate beyond the primary remote site so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>As an Archivist, I want to import Resources from MARCXML records.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>27</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>As a As an Archivist, I want to import so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>As a team member, I want to understand how time off overlaps with plans around the user research.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>As a As a team member, I want to understand how time off overlaps so that around the user research. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>As a DigitalRecords Archivist, I want to have the repository to lift embargoes on the release date and set the access controls to the configuration set on item on that date.</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>27</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>As a As a DigitalRecords Archivist, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>As a CMS SME, I want to see the webmaster workflow report, so that I can understand how this might impact current direction.</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>26</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>As a As a CMS SME, I want to nan so that so that I can understand how this might impact current direction. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>As a DigitalRecords Archivist, I want to edit the length of embargoes.</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>27</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>As a As a DigitalRecords Archivist, I want to edit the length of embargoes so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>As a camp administrator, I want to be able to keep my information in one place, so that the admins next year can improve on the previous years.</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>26</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>As a As a camp administrator, I want to nan so that so that the admins next year can improve on the previous years. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>As a user, I want to add a video to my article.</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>26</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to add a video so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>As a camp administrator, I want to store camper's immediate parent/guardian's information, so that I can easily call to notify them in case a grossly unacceptable behavior.</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>28</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>As a As a camp administrator, I want to nan so that so that I can easily call to notify them in case a grossly unacceptable behavior. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>As a user, I want backend changes to support loading enum value lists from the database.</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>28</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to loading enum value lists so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>As an Authenticated User, I want to get access to links to contextual help.</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>27</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>As a As an Authenticated User, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>As a depositor, I want to have guarantees about data integrity, so that I can use my data in the future and I can fulfil funder requirements for archival.</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>27</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>As a As a depositor, I want to nan so that so that I can use my data in the future and I can fulfil funder requirements for archival. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>As a trainee, I want to see which trainings I have signed up for, so that they can schedule their event experience.</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>As a As a trainee, I want to nan so that so that they can schedule their event experience. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>As a collection curator, I want to have the item to be allowed under the access permissions set on the object after the embargo data is reached.</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>As a As a collection curator, I want to allowed under the access permissions so that after the embargo data is reached. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>As a company, I want to have a website that is easy to use, so that I can upload or delete stuff step by step.</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>As a As a company, I want to easy to use so that so that I can upload or delete stuff step by step. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>As a Zooniverse admin, I want to perform automatic animal number detection in Snapshot Serengeti.</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>26</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>As a As a Zooniverse admin, I want to automatic animal number detection so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>As a web recruiter manager, I want to confirm the recruiter is set up and working properly on Science360.gov.</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>As a As a web recruiter manager, I want to confirm the recruiter is set up and working properly so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>As a repoadmin, I want to have the license be recorded in metadata and displayed alongside the item.</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>28</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>As a As a repoadmin, I want to have the license be recorded so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>As an admin, I want to have all data encrypted, so that important information will not be stolen during a server breach or an attack.</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>28</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>As a As an admin, I want to nan so that so that important information will not be stolen during a server breach or an attack. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>As a developer, I want to use a configuration that is not prepackaged within a built version of application.</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>27</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>As a As a developer, I want to use a configuration so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>As a systems administrator, I want to be able to control the location of the demo database and I want it to be backed up.</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>27</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>As a As a systems administrator, I want to I want to be able to control so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>As an admin, I want to annotate news video segments and extract a topic for each segment.</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>28</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>As a As an admin, I want to annotate news video segments and extract a topic so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>As a user, I want to have my personal information kept securely in the database of the website, so that I will not suffer from identity theft or telephone harassment.</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>27</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to nan so that so that I will not suffer from identity theft or telephone harassment. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>As an employee from the HR department, I want to have access to the full information of all employees working for this business.</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>26</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>As a As an employee from the HR department, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>As an UnivITservice, I want to store archived data directly on the HCP object store, so that  features can be made.</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>28</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>As a As an UnivITservice, I want to store archived data so that so that features can be made. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>As a user, I want to have a great UI and UX from the sites, so that I have a pleasant experience when navigating through them.</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>27</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to nan so that so that I have a pleasant experience when navigating through them. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>As a researcher, I want to know how many resources are needed during the project, so that I can calculate costs.</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>28</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>As a As a researcher, I want to nan so that so that I can calculate costs. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>As a user, I want to get info about perceptually similar video items and segments.</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>28</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to get info so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>As a fundingbody, I want to be reassured that researchers I fund have robust archival plans for their data, so that I can be sure that funding them is a worthwhile investment.</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>27</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>As a As a fundingbody, I want to nan so that so that I can be sure that funding them is a worthwhile investment. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>As a stakeholder, I want to have a decision on whether or not the blog aggregator may work for beta, and if not what will.</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>As a As a stakeholder, I want to may work for beta so that if not what will. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>As a legalofficer, I want to know about data sensitivity, so that I can establish sharing options.</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>28</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>As a As a legalofficer, I want to nan so that so that I can establish sharing options. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>As a developer, I want to determine if we can use the in-built Fedora 4 event audit services.</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>27</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>As a As a developer, I want to determine if we can use so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>As a team member, I want to understand what the MVP should look like, so that I can begin understanding workflow needs as they pertain to any CMS decision.</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>As a As a team member, I want to nan so that so that I can begin understanding workflow needs as they pertain to any CMS decision. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>As a camp administrator, I want to be able to make nametags faster, so that I don't have to spend two hours making 200+ nametags</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>As a As a camp administrator, I want to nan so that so that I don't have to spend two hours making 200+ nametags. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>As an Archivist, I want to import EAD files that were exported by Archon.</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>26</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>As a As an Archivist, I want to import EAD files so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>As an NSF employee, I want to know how brand guidelines are developed and maintained, so that I can incorporate them throughout the project.</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>28</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>As a As an NSF employee, I want to nan so that so that I can incorporate them throughout the project. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>As an NSF employee, I want to have high-level strategy recommendations to implement in conjunction with the new CMS.</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>As a As an NSF employee, I want to high-level strategy recommendations so that to implement in conjunction with the new CMS. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>As a trainee, I want to must accept the cancellation terms with a checkbox, so that they can be accountable..</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>25</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>As a As a trainee, I want to nan so that so that they can be accountable. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>As a DigitalRecords Archivist, I want to grant embargo privileges to other repository administrators.</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>26</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>As a As a DigitalRecords Archivist, I want to grant embargo privileges so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>As an Archivist, I want to export a description as EAD.</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>26</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>As a As an Archivist, I want to export a description so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>As an archivist, I want to search within a repository for resource and accession and digital object records.</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>28</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>As a As an archivist, I want to search within a repository so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>As a collection curator, I want to have a tool to perform author authority control.</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>26</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>As a As a collection curator, I want to tool to perform so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a publisher, I want to show the world how my published data is, so that that it immediately catches consumer's attention. </t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>25</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>As a As a publisher, I want to nan so that so that it immediately catches consumer's attention. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>As an Archivist, I want to be able to understand that an error occurred during import and why it might have occurred.</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>25</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>As a As an Archivist, I want to to be able to understand so that why it might have occurred. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>As an Archivist, I want to associate a standard identifier string with a Subject heading.</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>10</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>28</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>As a As an Archivist, I want to associate a standard identifier string so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>As an app developer, I want to only depend on the interface of a dataset type in my app and have the system inject the implementation at runtime.</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>As a As an app developer, I want to only depend on the interface so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>As an Archivist, I want to assign a component unique identifier to a Resource Component.</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>26</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>As a As an Archivist, I want to assign a component unique identifier so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>As a user, I want to get info about similar video items and segments.</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>28</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to get info so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>As a user, I want to view thumbnail sequences of video segments.</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>10</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>26</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>As a Consumer, I want to know that the data I am downloading is good and can be relied on, so that that I don't have to check it myself or run into annoying bugs later on.</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>28</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>As a As a Consumer, I want to nan so that so that that I don't have to check it myself or run into annoying bugs later on. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>As a Consumer, I want to be able to get the data for a data package even if the original data has been moved or removed, so that that I can still use is and my app or analysis keeps working.</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>10</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>28</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>As a As a Consumer, I want to nan so that so that that I can still use is and my app or analysis keeps working. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>As an app developer, I want to explore a dataset instance of a type that was deployed as part of an app.</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>10</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>28</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>As a As an app developer, I want to explore a dataset instance so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to use data package as a node lib in my project, so that that I can depend on it using my normal dependency framework.</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>10</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>25</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>As a As a Developer, I want to nan so that so that that I can depend on it using my normal dependency framework. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>As a Data Analyst I want to download a data package, so that that I can study it and wrangle with it to infer new data or generate new insights.</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>10</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>26</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>As a As a Data Analyst, I want to nan so that so that that I can study it and wrangle with it to infer new data or generate new insights. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>As a moderator, I want to add an item to the list of items to be estimated, so that so that we can be flexible and accommodate situations where we think of a new story while playing.</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>10</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>25</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>As a As a moderator, I want to add an item so that so that we can be flexible and accommodate situations where we think of a new story while playing. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>As a hydrator user, I want to explore the datasets created by my pipeline.</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>10</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>27</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>As a As a hydrator user, I want to explore the datasets so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>As a authenticateduser, I want to See a payment page to pay for my individual sponsorships as the third step of the registration process so that pay for my sponsorship.</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>10</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>25</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>As a As a authenticateduser, I want to third step of the registration process so that so that pay for my sponsorship. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a developer, I want an DSpace integration, so that I can integrate data-packaged data with pipelines that use Dspace. </t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>27</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>As a As a developer, I want to nan so that so that I can integrate data-packaged data with pipelines that use Dspace. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>As a Consumer, I want to see how much the data has been downloaded, so that that I can choose most popular in the case when there are several alternatives for my use case.</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>10</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>28</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>As a As a Consumer, I want to nan so that so that that I can choose most popular in the case when there are several alternatives for my use case. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>As a consumer, I want to view the data package, so that that I can get a sense of whether I want this dataset or not.</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>26</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>As a As a consumer, I want to nan so that so that that I can get a sense of whether I want this dataset or not. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>As a Zooniverse admin, I want to identify volunteer types.</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>28</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>As a As a Zooniverse admin, I want to I want to identify so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>As a dataset developer, I want to explore a dataset instance created from a dataset type that was deployed by itself.</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>10</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>28</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>As a As a dataset developer, I want to atomic task so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>As a dataset developer, I want to have the option of forcing applications to have the dataset code injected at runtime.</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>10</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>26</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>As a As a dataset developer, I want to have the option of forcing so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>As an app developer, I want to share a dataset type that I had previously deployed as part of an app.</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>28</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>As a As an app developer, I want to I want to share a dataset type so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Developer, I want an Elasticsearch integration, so that I can integrate data-packaged data with pipelines that use Elasticsearch. </t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>10</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>28</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>As a As a Developer, I want to nan so that so that I can integrate data-packaged data with pipelines that use Elasticsearch. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a ResearcherGovernment Publisher, I want to add reference data on inflation to my spending dataset, so that the spending lines in my dataset is more understandable. </t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>10</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>28</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>As a As a ResearcherGovernment Publisher, I want to add reference data so that so that the spending lines in my dataset is more understandable. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>As an Inspection Supervisor, I want to Manage Inspector Workload, so that I can meet service level and quality requirements.</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>10</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>27</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>As a As an Inspection Supervisor, I want to Manage Inspector Workload so that so that I can meet service level and quality requirements. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>As a collection curator, I want to see the scheduled records deletion date be displayed on the item and component pages.</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>10</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>28</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>As a As a collection curator, I want to scheduled records deletion date so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>As a user, I want to receive content recommendations from similar profiles.</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>10</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>28</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>As a user, I want to identify products in videos, and receive related information about them.</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>10</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>25</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to nan so that receive related information about them. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>As a user, I want to add additional properties for repositories.</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>10</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>27</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to add additional properties so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>As an Archivist, I want to import only Agent and Subject information from MARCXML records.</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>10</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>26</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>As a As an Archivist, I want to import only Agent and Subject information so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>As an Archivist, I want to add Notes to other record types.</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>10</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>28</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>As a As an Archivist, I want to add Notes to other record types so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>As an Administrator, I want to create a new User account for someone else.</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>10</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>26</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>As a As an Administrator, I want to create a new User account so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>As a Zooniverse admin, I want to assess how interesting or appealing or complex a picture is based on automated analysis, citizen annotations, and comments on Talk.</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>11</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>25</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>As a As a Zooniverse admin, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>As an app developer, I want to ensure that when I deploy a new version of an app that includes an older version of a dataset type deployed by another app and I expect that the dataset instances created by this app use the dataset type code included in this app.</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>11</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>26</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>As a As an app developer, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>As an API User, I want to be able to normalise measures by GDP, so I work with datasets in reference to their contextual constraints.</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>12</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>26</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>As a API User, I want to normalise measures by GDP so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>As a pipeline developer, I want to upgrade a dataset instance to a newer version of the code after the pipeline was created.</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>12</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>28</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>As a As a pipeline developer, I want to upgrade a dataset instance so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a plugin developer, I want to use a custom dataset type that was deployed independently or as part of an app inside the plugin. </t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>12</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>25</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>As a As a plugin developer, I want to deployed independently or as part of an app so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>As an Archivist, I want to add administrative data about the archival description and finding aid-related data to a top-level Resource.</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>12</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>28</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>As a As an Archivist, I want to add administrative data so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>As an Application Administrator, I want to assign Users to an Advanced Data Entry and ensure that the appropriate permissions are enforced.</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>12</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>27</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>As a As an Application Administrator, I want to assign Users to an Advanced Data Entry so that ensure that the appropriate permissions are enforced. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>As an NSF employee, I want to understand the process of switching the cloud.gov hosting plan over from prototype to FISMA low.</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>12</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>28</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>As a As an NSF employee, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>As a DigitalRecords Archivist, I want to have a method to add and remove individual people from deposit groups.</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>12</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>26</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>As a As a DigitalRecords Archivist, I want to add and remove individual people so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>As a dataset developer, I want to assign explicit versions to the code of a dataset type.</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>12</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>25</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>As a As a dataset developer, I want to assign explicit versions so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>As an app developer, I want to write unit tests for an app that depends on the interface of a dataset type.</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>12</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>25</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>As a As an app developer, I want to depends on the interface of a dataset type so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>As a migration specialist, I want to store the AT or Archon source record ids in each ASpace record</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>12</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>25</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>As a As a migration specialist, I want to store the AT or Archon source record ids so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>As a camp administrator, I want to be able to set a reminders related to specific tasks that has to be done.</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>12</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>26</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>As a camp administrator, I want to set a reminders related to specific tasks so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>As an admin, I want to get a quick assessment of whether audio material has been edited before the upload.</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>12</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>28</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>As a As an admin, I want to quick assessment so that whether audio material has been edited. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>As an admin, I want to filter and rank videos based on A/V quality aspects.</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>12</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>25</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>As a As an admin, I want to filter and rank so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>As a moderator, I want to edit an item in the list of items to be estimated, so that I can make it better reflect the team's understanding of the item.</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>12</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>26</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>As a As a moderator, I want to edit an item so that so that I can make it better reflect the team's understanding of the item. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>As a moderator, I want to see all items we try to estimate this session, so that I can answer questions about the current story such as "does this include ___".</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>12</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>26</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>As a As a moderator, I want to see all items we try to estimate so that so that I can answer questions about the current story. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>As a Zooniverse admin, I want to perform automatic detection of plankton size or orientation in Plankton Portal images.</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>12</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>27</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>As a As a Zooniverse admin, I want to automatic detection so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>As an estimator, I want to see all items we will try to estimate this session, so that I have a feel for the sizes of the various items.</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>12</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4</v>
+      </c>
+      <c r="D107" t="n">
+        <v>25</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>As a As an estimator, I want to nan so that so that I have a feel for the sizes of the various items. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>As a moderator, I want to select whether to have the team estimate with {0, 1/2, 1, 2, 3, 5, 8, etc.} or {0, 1, 2, 4, 8, 16, 32, etc.}, so that the team can use either the modified Fibonacci sequence or powers of 2.</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>12</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>26</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>As a As a moderator, I want to select whether to have the team estimate so that so that the team can use either the modified Fibonacci sequence or powers of 2. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>As a dataset developer, I want to separate the interface from the implementation of a dataset type.</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>12</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>27</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>As a As a dataset developer, I want to separate the interface from the implementation so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>As a dataset developer, I want to have an archetype that helps me package my dataset type properly.</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>12</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>25</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>As a As a dataset developer, I want to package my dataset type properly so that helps me package my dataset type properly. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>As an app developer, I want to ensure that when I deploy a new version of an app that includes a shared dataset type that all dataset instances created by this app start using the new code but all dataset instances created by other apps remain unchanged.</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>12</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>27</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>As a As an app developer, I want to deploy a new version of an app so that all dataset instances created by this app start using the new code. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Developer, I want a DAT integration, so that I can integrate data-packaged data with pipelines that use DAT. </t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>12</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>27</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>As a As a Developer, I want to nan so that so that I can integrate data-packaged data with pipelines that use DAT. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Developer, I want an EPrints integration, so that I can integrate data-packaged data with pipelines that use EPrints. </t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>12</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>28</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>As a As a Developer, I want to nan so that so that I can integrate data-packaged data with pipelines that use EPrints. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Machine Learning expert, I would like to package ML datasets as data packages, so that I can easily import them into my ML platform, so that I can start using the data in doing analysis. </t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>12</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>28</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>As a As a Machine Learning expert, I want to nan so that so that I can easily import them into my ML platform. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Developer, I want to get a Data Package into C++ in seconds, so that I can start using the data in doing analysis and visualizations. </t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>12</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>26</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>As a As a Developer, I want to nan so that so that I can start using the data in doing analysis and visualizations. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a dataset developer, I want to have the option of implementing a migration procedure that can be run after an upgrade of a dataset instance to a new version of it type. </t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>12</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>25</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>As a As a dataset developer, I want to implementing a migration procedure so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>As a data scientist, I want to be able to upgrade a dataset instance to a new version of its code.</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>12</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>27</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>As a As a data scientist, I want to upgrade a dataset instance so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>As a Zooniverse admin, I want to perform automatic animal attribute preclassification in Snapshot Serengeti.</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>12</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>28</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>As a As a Zooniverse admin, I want to automatic animal attribute preclassification so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>As a Zooniverse admin, I want to perform automatic animal species preclassification in Snapshot Serengeti.</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>12</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>28</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>As a As a Zooniverse admin, I want to automatic animal species preclassification so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>As a Zooniverse admin, I want to perform automatic image series detection for the case of timestamping malfunction in Snapshot Serengeti images.</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>12</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>28</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>As a As a Zooniverse admin, I want to automatic image series detection so that for the case of timestamping malfunction. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>As a Zooniverse admin, I want to detect when a scientist should be prompted to look at a subject, based on annotations and information from Talk comments.</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>12</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>26</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>As a As a Zooniverse admin, I want to detect when a scientist should be prompted so that based on annotations and information from Talk comments. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>As an app developer, I want to deploy a new version of a dataset type as part of an app artifact, without affecting other datasets of this type.</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>12</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>27</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>As a As an app developer, I want to deploy a new version of a dataset type as part of an app artifact so that without affecting other datasets of this type. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>As a attendee, I want to see what summits I'm signed up for, so that I can confirm my attendence and prevent myself from accidentally double-booking with a training or another summit.</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>12</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>28</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>As a As a attendee, I want to nan so that so that I can confirm my attendence and prevent myself from accidentally double-booking. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>As an Admin, I want to invite someone to join the platform, so that that they can start contributing or using data.</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>12</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>26</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>As a As an Admin, I want to nan so that so that they can start contributing or using data. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>As a Publisher, I want to know what do next after signing up, so that that I can get going quickly.</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>12</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>28</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>As a As a Publisher, I want to know what do next so that so that I can get going quickly. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>As a Publisher, I want to sign up for an account, so that that I can publish my data package to the registry and to have a publisher account to publish my data package under.</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>12</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>28</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>As a As a Publisher, I want to sign up for an account so that so that that I can publish my data package to the registry and to have a publisher account to publish my data package under. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Developer, I want to get a Data Package into Julia in seconds, so that I can start using the data in doing analysis and visualizations. </t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>12</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>26</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>As a As a Developer, I want to nan so that so that I can start using the data in doing analysis and visualizations. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to do exploratory data analysis in R and operationalize that analysis in Python, so that I can use the best tool for the job.</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>12</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>25</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>As a As a Developer, I want to do exploratory data analysis in R and operationalize that analysis in Python so that so that I can use the best tool for the job. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Researcher, I want to get my Excel spreadsheet into a Data Package, so that I can benefit from better tooling and standardization. </t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>12</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>28</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>As a As a Researcher, I want to nan so that so that I can benefit from better tooling and standardization. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Developer, I want a jQuery plugin for Core Data Packages, so that I can use it to apply to form control that uses a core dataset for autocompletion. </t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>12</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>26</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>As a As a Developer, I want to nan so that so that I can use it to apply to form control that uses a core dataset for autocompletion. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Developer, I want to get a Data Package into Python in seconds, so that I can start using the data for doing analysis and visualizations. </t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>12</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>28</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>As a As a Developer, I want to nan so that so that I can start using the data for doing analysis and visualizations. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>As a Consumer, I want to search data packages, so that that I can find the ones I want.</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>12</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>25</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>As a As a Consumer, I want to search data packages so that so that that I can find the ones I want. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>As a Developer, I want HDF5 integration, so that I can integrate data-packaged data with pipelines that use HDF5.</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>12</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>26</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>As a As a Developer, I want to nan so that so that I can integrate data-packaged data with pipelines that use HDF5. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>As a collection curator, I want to have my collection be encrypted with a key maintained on that server, a checksum made and stored of the encrypted file, and the encrypted file replicated to our remote storage site.</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>12</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>27</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>As a As a collection curator, I want to nan so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>As a repository manager, I want to track who is financially responsible for each item in the repository, who should probably be a person contact including name, phone, email, maybe title and address.</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>12</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>27</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>As a As a repository manager, I want to track who is financially responsible for each item in the repository so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>As a anonymoususer, I want to see all events, trainings and summits that a sponsor is sponsoring so that I know where I can engage with this sponsor and where they are thought leaders.</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>12</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4</v>
+      </c>
+      <c r="D136" t="n">
+        <v>28</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>As a As a anonymoususer, I want to nan so that so that I know where I can engage with this sponsor and where they are thought leaders. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>As a anonymoususer, I want to view venue details, so that I can get a sense of the location and see the events happening there.</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>12</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>As a As a anonymoususer, I want to nan so that so that I can get a sense of the location and see the events happening there. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>As a administrator, I want to create and maintain venues, so that I can provide location details to help users find what they're looking for.</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>12</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>26</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>As a As a administrator, I want to create and maintain so that so that I can provide location details to help users find what they're looking for. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>As an app developer, I want to share a dataset type across multiple applications that include the dataset type's code in their artifacts.</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>12</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>28</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>As a As an app developer, I want to share a dataset type so that that include the dataset type's code in their artifacts. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>As an admin, I want to prefilter the content using search on high­level asset information such as metadata and tags either recognized by the system of provided by the user.</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>12</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>25</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>As a As an admin, I want to prefilter the content so that using search on high­level asset information. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>As an admin, I want to automatically validated the ingested contents for copyright infringement.</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>12</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>25</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>As a As an admin, I want to automatically validated so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>As an admin, I want to prefilter content using search based on low­level asset information.</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>12</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>25</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>As a As an admin, I want to prefilter content so that I want to prefilter content. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>As an admin, I want to prefilter nudity content.</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>12</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>25</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>As a As an admin, I want to prefilter nudity content so that nan. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Researcher, I want to get a Data Package into Excel in seconds, so that I can start using the data for doing analysis and visualizations. </t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>12</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>28</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>As a As a Researcher, I want to nan so that so that I can start using the data for doing analysis and visualizations. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Researcher, I want to get a Data Package into R in seconds, so that I can start using the data for doing analysis and visualizations. </t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>12</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>As a As a Researcher, I want to nan so that so that I can start using the data for doing analysis and visualizations. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a ResearcherPublisher, I want to know that my data conforms to its Data Package profile, so that I can feel trust in the validity and usefulness of the data. </t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>12</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>26</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>As a As a ResearcherPublisher, I want to nan so that so that I can feel trust in the validity and usefulness of the data. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Researcher, I want to be able to save new visualizations, so that I can share them with others or include them in the Data Package. </t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>12</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>28</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>As a As a Researcher, I want to nan so that so that I can share them with others or include them in the Data Package. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>As a user, I want to walk around, access content using a geographical map and be informed if there are videos covering the area, monuments or any other relevant point of interest.</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>12</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>28</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to walk around, access content so that be informed if there are videos covering the area. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>As a user, I want to identify brands in videos, and receive related information about them.</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>12</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>26</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to I want to identify brands in videos, and receive related information about them so that receive related information about them. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>As a user, I want to identify broadcaster logos in videos, and receive related information about them.</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>12</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>25</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to identify broadcaster logos in videos so that receive related information about them. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>As a user, I want to identify persons in videos, and receive related information about them.</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>12</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>28</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>As a As a user, I want to identify persons in videos so that receive related information about them. [Added Priority: High] [Added Acceptance Criteria: Verified].</t>
         </is>
       </c>
     </row>
